--- a/data_quarter/zb/人民生活/城镇居民人均支出情况.xlsx
+++ b/data_quarter/zb/人民生活/城镇居民人均支出情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,11 +524,56 @@
           <t>城镇居民人均食品烟酒支出_累计增长</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均交通通信支出</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均其他用品及服务支出</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均医疗保健支出</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均居住支出</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均教育文化娱乐支出</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均消费支出</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均生活用品及服务支出</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均衣着支出</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均食品烟酒支出</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -567,97 +612,178 @@
         <v>1561.4</v>
       </c>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>558.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1008</v>
+      </c>
+      <c r="X2" t="n">
+        <v>428.7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4725.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>516.4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1561.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1671.4</v>
+        <v>1093.8</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>370.8</v>
+        <v>246.6</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>844.8</v>
+        <v>547</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>3093.9</v>
+        <v>2014.1</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1438.4</v>
+        <v>824.2</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>13488.36</v>
+        <v>8856.57</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>839.9</v>
+        <v>542.3</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>1126.4</v>
+        <v>836.7</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>4102.8</v>
+        <v>2751.8</v>
       </c>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>535.1999999999999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>284.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>395.5000000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4131.37</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>272.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>320.3000000000001</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1190.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1093.8</v>
+        <v>1671.4</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>246.6</v>
+        <v>370.8</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>547</v>
+        <v>844.8</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2014.1</v>
+        <v>3093.9</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>824.2</v>
+        <v>1438.4</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>8856.57</v>
+        <v>13488.36</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>542.3</v>
+        <v>839.9</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>836.7</v>
+        <v>1126.4</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2751.8</v>
+        <v>4102.8</v>
       </c>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>577.6000000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>297.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1079.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>614.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4631.790000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>297.6</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>289.7</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1351</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -696,11 +822,38 @@
         <v>5570.73</v>
       </c>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>646.4400000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>119.59</v>
+      </c>
+      <c r="V5" t="n">
+        <v>291.3199999999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1207.47</v>
+      </c>
+      <c r="X5" t="n">
+        <v>549.8599999999999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4999.18</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>289.2600000000001</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>427.26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1467.929999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -756,134 +909,215 @@
       </c>
       <c r="S6" t="n">
         <v>9.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>646.09</v>
+      </c>
+      <c r="U6" t="n">
+        <v>145.74</v>
+      </c>
+      <c r="V6" t="n">
+        <v>303.43</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1089.63</v>
+      </c>
+      <c r="X6" t="n">
+        <v>465.31</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5193.15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>295.69</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>531.9299999999999</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1715.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1903.83</v>
+        <v>1267.12</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9</v>
+        <v>15.8</v>
       </c>
       <c r="D7" t="n">
-        <v>401.91</v>
+        <v>275.62</v>
       </c>
       <c r="E7" t="n">
-        <v>8.4</v>
+        <v>11.8</v>
       </c>
       <c r="F7" t="n">
-        <v>964.17</v>
+        <v>617.16</v>
       </c>
       <c r="G7" t="n">
-        <v>14.1</v>
+        <v>12.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3278.44</v>
+        <v>2145.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1525.57</v>
+        <v>869.05</v>
       </c>
       <c r="K7" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
-        <v>14607.33</v>
+        <v>9670.549999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="N7" t="n">
-        <v>905.39</v>
+        <v>589.5599999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>1184.15</v>
+        <v>878.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>4443.87</v>
+        <v>3028.3</v>
       </c>
       <c r="S7" t="n">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T7" t="n">
+        <v>621.0299999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>129.88</v>
+      </c>
+      <c r="V7" t="n">
+        <v>313.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1055.97</v>
+      </c>
+      <c r="X7" t="n">
+        <v>403.74</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4477.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>293.8699999999999</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>346.22</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1312.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.12</v>
+        <v>1903.83</v>
       </c>
       <c r="C8" t="n">
-        <v>15.8</v>
+        <v>13.9</v>
       </c>
       <c r="D8" t="n">
-        <v>275.62</v>
+        <v>401.91</v>
       </c>
       <c r="E8" t="n">
-        <v>11.8</v>
+        <v>8.4</v>
       </c>
       <c r="F8" t="n">
-        <v>617.16</v>
+        <v>964.17</v>
       </c>
       <c r="G8" t="n">
-        <v>12.8</v>
+        <v>14.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2145.6</v>
+        <v>3278.44</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>869.05</v>
+        <v>1525.57</v>
       </c>
       <c r="K8" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="L8" t="n">
-        <v>9670.549999999999</v>
+        <v>14607.33</v>
       </c>
       <c r="M8" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>589.5599999999999</v>
+        <v>905.39</v>
       </c>
       <c r="O8" t="n">
-        <v>8.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="P8" t="n">
-        <v>878.15</v>
+        <v>1184.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="R8" t="n">
-        <v>3028.3</v>
+        <v>4443.87</v>
       </c>
       <c r="S8" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="T8" t="n">
+        <v>636.71</v>
+      </c>
+      <c r="U8" t="n">
+        <v>126.29</v>
+      </c>
+      <c r="V8" t="n">
+        <v>347.01</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1132.84</v>
+      </c>
+      <c r="X8" t="n">
+        <v>656.52</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4936.780000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>315.83</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>306.0000000000001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1415.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -939,12 +1173,39 @@
       </c>
       <c r="S9" t="n">
         <v>7.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>733.4400000000001</v>
+      </c>
+      <c r="U9" t="n">
+        <v>131.04</v>
+      </c>
+      <c r="V9" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1211.12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>616.7300000000002</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5360.750000000002</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>327.8200000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>443.0599999999999</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1556.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1000,134 +1261,215 @@
       </c>
       <c r="S10" t="n">
         <v>6.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>716.802222750822</v>
+      </c>
+      <c r="U10" t="n">
+        <v>153.662639698544</v>
+      </c>
+      <c r="V10" t="n">
+        <v>338.13338775132</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1158.70295050791</v>
+      </c>
+      <c r="X10" t="n">
+        <v>452.143525654966</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5533.56</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>319.294185136801</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>568.097192883916</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1826.72185551498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2115.02645924153</v>
+        <v>1399.57</v>
       </c>
       <c r="C11" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="D11" t="n">
-        <v>435.51264315043</v>
+        <v>294.47</v>
       </c>
       <c r="E11" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="F11" t="n">
-        <v>1061.35848427404</v>
+        <v>697.53</v>
       </c>
       <c r="G11" t="n">
-        <v>10.1</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>3444.27568337294</v>
+        <v>2272.99</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="J11" t="n">
-        <v>1668.04990021673</v>
+        <v>951.22</v>
       </c>
       <c r="K11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
-        <v>15635.7636311552</v>
+        <v>10401.01</v>
       </c>
       <c r="M11" t="n">
-        <v>5.41871921182266</v>
+        <v>6.2</v>
       </c>
       <c r="N11" t="n">
-        <v>955.427316455785</v>
+        <v>633.03</v>
       </c>
       <c r="O11" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1237.37482273358</v>
+        <v>924.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="R11" t="n">
-        <v>4718.73832171015</v>
+        <v>3227.84</v>
       </c>
       <c r="S11" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>682.7677772491779</v>
+      </c>
+      <c r="U11" t="n">
+        <v>140.807360301456</v>
+      </c>
+      <c r="V11" t="n">
+        <v>359.39661224868</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1114.28704949209</v>
+      </c>
+      <c r="X11" t="n">
+        <v>499.076474345034</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4867.45</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>313.735814863199</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>356.252807116084</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1401.11814448502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1399.57</v>
+        <v>2115.02645924153</v>
       </c>
       <c r="C12" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="D12" t="n">
-        <v>294.47</v>
+        <v>435.51264315043</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="F12" t="n">
-        <v>697.53</v>
+        <v>1061.35848427404</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>10.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2272.99</v>
+        <v>3444.27568337294</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>951.22</v>
+        <v>1668.04990021673</v>
       </c>
       <c r="K12" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>10401.01</v>
+        <v>15635.7636311552</v>
       </c>
       <c r="M12" t="n">
+        <v>5.41871921182266</v>
+      </c>
+      <c r="N12" t="n">
+        <v>955.427316455785</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1237.37482273358</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4718.73832171015</v>
+      </c>
+      <c r="S12" t="n">
         <v>6.2</v>
       </c>
-      <c r="N12" t="n">
-        <v>633.03</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>924.35</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3227.84</v>
-      </c>
-      <c r="S12" t="n">
-        <v>6.6</v>
+      <c r="T12" t="n">
+        <v>715.4564592415302</v>
+      </c>
+      <c r="U12" t="n">
+        <v>141.04264315043</v>
+      </c>
+      <c r="V12" t="n">
+        <v>363.82848427404</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1171.28568337294</v>
+      </c>
+      <c r="X12" t="n">
+        <v>716.82990021673</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5234.753631155199</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>322.397316455785</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>313.02482273358</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1490.89832171015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1183,12 +1525,39 @@
       </c>
       <c r="S13" t="n">
         <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>780.3489802634899</v>
+      </c>
+      <c r="U13" t="n">
+        <v>142.009533641213</v>
+      </c>
+      <c r="V13" t="n">
+        <v>382.01105858298</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1281.70201468503</v>
+      </c>
+      <c r="X13" t="n">
+        <v>714.7859029376498</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5756.5993017368</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>351.054498221055</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>463.7506316237</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1640.93668178172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1244,134 +1613,215 @@
       </c>
       <c r="S14" t="n">
         <v>7.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>759.56330923885</v>
+      </c>
+      <c r="U14" t="n">
+        <v>157.769357288681</v>
+      </c>
+      <c r="V14" t="n">
+        <v>372.798561315858</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1232.00325967248</v>
+      </c>
+      <c r="X14" t="n">
+        <v>561.761392242377</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5969.9685466979</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>347.421062937235</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>575.090007838043</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1963.56159616438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2276.720121</v>
+        <v>1491.5054179143</v>
       </c>
       <c r="C15" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="D15" t="n">
-        <v>437.9534034</v>
+        <v>301.270741781</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1189.129964</v>
+        <v>792.1160019485</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3688.662443</v>
+        <v>2436.6670869304</v>
       </c>
       <c r="I15" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1878.606812</v>
+        <v>1077.6597670343</v>
       </c>
       <c r="K15" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="L15" t="n">
-        <v>16796.59809</v>
+        <v>11185</v>
       </c>
       <c r="M15" t="n">
-        <v>5.294117647</v>
+        <v>5.3</v>
       </c>
       <c r="N15" t="n">
-        <v>1033.464022</v>
+        <v>680.2384533334</v>
       </c>
       <c r="O15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="P15" t="n">
-        <v>1258.763727</v>
+        <v>938.0891449632001</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>5033.297601</v>
+        <v>3467.4091374347</v>
       </c>
       <c r="S15" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>731.9421086754501</v>
+      </c>
+      <c r="U15" t="n">
+        <v>143.501384492319</v>
+      </c>
+      <c r="V15" t="n">
+        <v>419.3174406326419</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1204.66382725792</v>
+      </c>
+      <c r="X15" t="n">
+        <v>515.8983747919231</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5215.0314533021</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>332.817390396165</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>362.9991371251571</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1503.84754127032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1491.5054179143</v>
+        <v>2276.720121</v>
       </c>
       <c r="C16" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="D16" t="n">
-        <v>301.270741781</v>
+        <v>437.9534034</v>
       </c>
       <c r="E16" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
-        <v>792.1160019485</v>
+        <v>1189.129964</v>
       </c>
       <c r="G16" t="n">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>2436.6670869304</v>
+        <v>3688.662443</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1077.6597670343</v>
+        <v>1878.606812</v>
       </c>
       <c r="K16" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="L16" t="n">
-        <v>11185</v>
+        <v>16796.59809</v>
       </c>
       <c r="M16" t="n">
-        <v>5.3</v>
+        <v>5.294117647</v>
       </c>
       <c r="N16" t="n">
-        <v>680.2384533334</v>
+        <v>1033.464022</v>
       </c>
       <c r="O16" t="n">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>938.0891449632001</v>
+        <v>1258.763727</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>3467.4091374347</v>
+        <v>5033.297601</v>
       </c>
       <c r="S16" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
+      </c>
+      <c r="T16" t="n">
+        <v>785.2147030856997</v>
+      </c>
+      <c r="U16" t="n">
+        <v>136.682661619</v>
+      </c>
+      <c r="V16" t="n">
+        <v>397.0139620515</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1251.9953560696</v>
+      </c>
+      <c r="X16" t="n">
+        <v>800.9470449656999</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5611.59809</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>353.2255686666001</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>320.6745820368</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1565.8884635653</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1427,12 +1877,39 @@
       </c>
       <c r="S17" t="n">
         <v>6.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>897.2798790000002</v>
+      </c>
+      <c r="U17" t="n">
+        <v>157.0465966</v>
+      </c>
+      <c r="V17" t="n">
+        <v>441.870036</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1425.337557</v>
+      </c>
+      <c r="X17" t="n">
+        <v>759.393188</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6282.40191</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>393.5359779999999</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>480.236273</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1728.702399</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1488,134 +1965,215 @@
       </c>
       <c r="S18" t="n">
         <v>3.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>854</v>
+      </c>
+      <c r="U18" t="n">
+        <v>176</v>
+      </c>
+      <c r="V18" t="n">
+        <v>429</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1334</v>
+      </c>
+      <c r="X18" t="n">
+        <v>632</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6387</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>365</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>563</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2034</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2394.612706</v>
+        <v>1614.504908</v>
       </c>
       <c r="C19" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>492.079306</v>
+        <v>337.596582</v>
       </c>
       <c r="E19" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1323.494405</v>
+        <v>876.145203</v>
       </c>
       <c r="G19" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3984.262106</v>
+        <v>2622.33167</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2036.8395</v>
+        <v>1182.242281</v>
       </c>
       <c r="K19" t="n">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>17845.98354</v>
+        <v>11931.27866</v>
       </c>
       <c r="M19" t="n">
-        <v>4.527559055</v>
+        <v>5.123152709</v>
       </c>
       <c r="N19" t="n">
-        <v>1118.258211</v>
+        <v>728.502604</v>
       </c>
       <c r="O19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="P19" t="n">
-        <v>1267.735773</v>
+        <v>947.578996</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>5228.701532</v>
+        <v>3622.376418</v>
       </c>
       <c r="S19" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>760.5049079999999</v>
+      </c>
+      <c r="U19" t="n">
+        <v>161.596582</v>
+      </c>
+      <c r="V19" t="n">
+        <v>447.145203</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1288.33167</v>
+      </c>
+      <c r="X19" t="n">
+        <v>550.242281</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5544.27866</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>363.502604</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>384.578996</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1588.376418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.504908</v>
+        <v>2394.612706</v>
       </c>
       <c r="C20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>492.079306</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1323.494405</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3984.262106</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2036.8395</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17845.98354</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.527559055</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1118.258211</v>
+      </c>
+      <c r="O20" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D20" t="n">
-        <v>337.596582</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>876.145203</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2622.33167</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1182.242281</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11931.27866</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5.123152709</v>
-      </c>
-      <c r="N20" t="n">
-        <v>728.502604</v>
-      </c>
-      <c r="O20" t="n">
-        <v>7.1</v>
-      </c>
       <c r="P20" t="n">
-        <v>947.578996</v>
+        <v>1267.735773</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R20" t="n">
-        <v>3622.376418</v>
+        <v>5228.701532</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>780.107798</v>
+      </c>
+      <c r="U20" t="n">
+        <v>154.482724</v>
+      </c>
+      <c r="V20" t="n">
+        <v>447.3492019999999</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1361.930436</v>
+      </c>
+      <c r="X20" t="n">
+        <v>854.597219</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5914.704880000001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>389.7556070000001</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>320.1567770000001</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1606.325114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1671,12 +2229,39 @@
       </c>
       <c r="S21" t="n">
         <v>3.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>926.9022500000001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>159.4221705</v>
+      </c>
+      <c r="V21" t="n">
+        <v>453.8728430000001</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1579.740009</v>
+      </c>
+      <c r="X21" t="n">
+        <v>809.796871</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>6598.970239999999</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>406.787724</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>490.1984199999999</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1772.249951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1732,134 +2317,215 @@
       </c>
       <c r="S22" t="n">
         <v>3.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>863</v>
+      </c>
+      <c r="U22" t="n">
+        <v>186</v>
+      </c>
+      <c r="V22" t="n">
+        <v>506</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1489</v>
+      </c>
+      <c r="X22" t="n">
+        <v>605</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>6749</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>393</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>608</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2099</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2522</v>
+        <v>1670</v>
       </c>
       <c r="C23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>357</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1029</v>
+      </c>
+      <c r="G23" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2911</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1245</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.3</v>
       </c>
-      <c r="D23" t="n">
-        <v>520</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1527</v>
-      </c>
-      <c r="G23" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4415</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2110</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L23" t="n">
-        <v>19014</v>
+        <v>12745</v>
       </c>
       <c r="M23" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="N23" t="n">
-        <v>1193</v>
+        <v>793</v>
       </c>
       <c r="O23" t="n">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>1298</v>
+        <v>992</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="R23" t="n">
-        <v>5428</v>
+        <v>3750</v>
       </c>
       <c r="S23" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>807</v>
+      </c>
+      <c r="U23" t="n">
+        <v>171</v>
+      </c>
+      <c r="V23" t="n">
+        <v>523</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1422</v>
+      </c>
+      <c r="X23" t="n">
+        <v>640</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5996</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>384</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1651</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1670</v>
+        <v>2522</v>
       </c>
       <c r="C24" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="D24" t="n">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="E24" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1029</v>
+        <v>1527</v>
       </c>
       <c r="G24" t="n">
-        <v>17.4</v>
+        <v>15.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2911</v>
+        <v>4415</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="J24" t="n">
-        <v>1245</v>
+        <v>2110</v>
       </c>
       <c r="K24" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>12745</v>
+        <v>19014</v>
       </c>
       <c r="M24" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="N24" t="n">
-        <v>793</v>
+        <v>1193</v>
       </c>
       <c r="O24" t="n">
-        <v>8.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="P24" t="n">
-        <v>992</v>
+        <v>1298</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>3750</v>
+        <v>5428</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>852</v>
+      </c>
+      <c r="U24" t="n">
+        <v>163</v>
+      </c>
+      <c r="V24" t="n">
+        <v>498</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1504</v>
+      </c>
+      <c r="X24" t="n">
+        <v>865</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>6269</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>306</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1678</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1915,12 +2581,39 @@
       </c>
       <c r="S25" t="n">
         <v>3.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>951</v>
+      </c>
+      <c r="U25" t="n">
+        <v>167</v>
+      </c>
+      <c r="V25" t="n">
+        <v>519</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1840</v>
+      </c>
+      <c r="X25" t="n">
+        <v>864</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>7098</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>436</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>510</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1811</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1976,134 +2669,215 @@
       </c>
       <c r="S26" t="n">
         <v>1.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>924.687253282</v>
+      </c>
+      <c r="U26" t="n">
+        <v>199.9193095722</v>
+      </c>
+      <c r="V26" t="n">
+        <v>555.1387758793001</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1629.4202816521</v>
+      </c>
+      <c r="X26" t="n">
+        <v>706.1898045242</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>7160.4522463822</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>407.6535152205</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>602.5228336828</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>2134.9204725693</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2675.0218944171</v>
+        <v>1775.690854075</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D27" t="n">
-        <v>575.551020248</v>
+        <v>392.9397335144</v>
       </c>
       <c r="E27" t="n">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>1683.5959486813</v>
+        <v>1121.8444762931</v>
       </c>
       <c r="G27" t="n">
+        <v>9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3230.920589013</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1371.1790596488</v>
+      </c>
+      <c r="K27" t="n">
         <v>10.2</v>
       </c>
-      <c r="H27" t="n">
-        <v>4889.1437509117</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2369.2689435881</v>
-      </c>
-      <c r="K27" t="n">
-        <v>12.3</v>
-      </c>
       <c r="L27" t="n">
-        <v>20379.2294427049</v>
+        <v>13565.2730114514</v>
       </c>
       <c r="M27" t="n">
-        <v>4.6875</v>
+        <v>4.1095890411</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.997254375</v>
+        <v>821.1105404156</v>
       </c>
       <c r="O27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1000.01333444</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3851.5744240515</v>
+      </c>
+      <c r="S27" t="n">
         <v>2.7</v>
       </c>
-      <c r="P27" t="n">
-        <v>1321.5923774222</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5640.0582530616</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.9</v>
+      <c r="T27" t="n">
+        <v>851.003600793</v>
+      </c>
+      <c r="U27" t="n">
+        <v>193.0204239422</v>
+      </c>
+      <c r="V27" t="n">
+        <v>566.7057004137998</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1601.5003073609</v>
+      </c>
+      <c r="X27" t="n">
+        <v>664.9892551245999</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>6404.820765069199</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>413.4570251951</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>397.4905007572</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1716.6539514822</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1775.690854075</v>
+        <v>2675.0218944171</v>
       </c>
       <c r="C28" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>392.9397335144</v>
+        <v>575.551020248</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="F28" t="n">
-        <v>1121.8444762931</v>
+        <v>1683.5959486813</v>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>10.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3230.920589013</v>
+        <v>4889.1437509117</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1371.1790596488</v>
+        <v>2369.2689435881</v>
       </c>
       <c r="K28" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="L28" t="n">
-        <v>13565.2730114514</v>
+        <v>20379.2294427049</v>
       </c>
       <c r="M28" t="n">
-        <v>4.1095890411</v>
+        <v>4.6875</v>
       </c>
       <c r="N28" t="n">
-        <v>821.1105404156</v>
+        <v>1224.997254375</v>
       </c>
       <c r="O28" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P28" t="n">
-        <v>1000.01333444</v>
+        <v>1321.5923774222</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>3851.5744240515</v>
+        <v>5640.0582530616</v>
       </c>
       <c r="S28" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>899.3310403421001</v>
+      </c>
+      <c r="U28" t="n">
+        <v>182.6112867336</v>
+      </c>
+      <c r="V28" t="n">
+        <v>561.7514723882</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1658.2231618987</v>
+      </c>
+      <c r="X28" t="n">
+        <v>998.0898839392999</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6813.956431253499</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>403.8867139594</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>321.5790429821999</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1788.4838290101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2159,12 +2933,39 @@
       </c>
       <c r="S29" t="n">
         <v>6.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>995.9781055828998</v>
+      </c>
+      <c r="U29" t="n">
+        <v>171.448979752</v>
+      </c>
+      <c r="V29" t="n">
+        <v>599.4040513187001</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1890.8562490883</v>
+      </c>
+      <c r="X29" t="n">
+        <v>958.7310564119002</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7683.770557295102</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>464.002745625</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>510.4076225778001</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>2092.9417469384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2220,134 +3021,215 @@
       </c>
       <c r="S30" t="n">
         <v>-1.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>746</v>
+      </c>
+      <c r="U30" t="n">
+        <v>151</v>
+      </c>
+      <c r="V30" t="n">
+        <v>494</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1667</v>
+      </c>
+      <c r="X30" t="n">
+        <v>471</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>6478</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>357</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>481</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>2111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2460</v>
+        <v>1544</v>
       </c>
       <c r="C31" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>294</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1012</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3303</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>869</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>12485</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>755</v>
+      </c>
+      <c r="O31" t="n">
         <v>-8</v>
       </c>
-      <c r="D31" t="n">
-        <v>456</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-20.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1585</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5012</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1675</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-29.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>19247</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-8.4</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1166</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-4.8</v>
-      </c>
       <c r="P31" t="n">
-        <v>1128</v>
+        <v>805</v>
       </c>
       <c r="Q31" t="n">
-        <v>-14.6</v>
+        <v>-19.5</v>
       </c>
       <c r="R31" t="n">
-        <v>5764</v>
+        <v>3903</v>
       </c>
       <c r="S31" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>798</v>
+      </c>
+      <c r="U31" t="n">
+        <v>143</v>
+      </c>
+      <c r="V31" t="n">
+        <v>518</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1636</v>
+      </c>
+      <c r="X31" t="n">
+        <v>398</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>6007</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>398</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>324</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1792</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1544</v>
+        <v>2460</v>
       </c>
       <c r="C32" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="D32" t="n">
-        <v>294</v>
+        <v>456</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.3</v>
+        <v>-20.8</v>
       </c>
       <c r="F32" t="n">
-        <v>1012</v>
+        <v>1585</v>
       </c>
       <c r="G32" t="n">
-        <v>-9.800000000000001</v>
+        <v>-5.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3303</v>
+        <v>5012</v>
       </c>
       <c r="I32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1675</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>19247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1166</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1128</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5764</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.2</v>
       </c>
-      <c r="J32" t="n">
-        <v>869</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-36.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>12485</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-11.2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>755</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-8</v>
-      </c>
-      <c r="P32" t="n">
-        <v>805</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-19.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3903</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.3</v>
+      <c r="T32" t="n">
+        <v>916</v>
+      </c>
+      <c r="U32" t="n">
+        <v>162</v>
+      </c>
+      <c r="V32" t="n">
+        <v>573</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1709</v>
+      </c>
+      <c r="X32" t="n">
+        <v>806</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>6762</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>411</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>323</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1861</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2403,12 +3285,39 @@
       </c>
       <c r="S33" t="n">
         <v>1.9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1014</v>
+      </c>
+      <c r="U33" t="n">
+        <v>190</v>
+      </c>
+      <c r="V33" t="n">
+        <v>587</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1946</v>
+      </c>
+      <c r="X33" t="n">
+        <v>917</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>7760</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>474</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>517</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>2117</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2464,134 +3373,215 @@
       </c>
       <c r="S34" t="n">
         <v>13.9</v>
+      </c>
+      <c r="T34" t="n">
+        <v>854</v>
+      </c>
+      <c r="U34" t="n">
+        <v>187</v>
+      </c>
+      <c r="V34" t="n">
+        <v>586</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1783</v>
+      </c>
+      <c r="X34" t="n">
+        <v>706</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>7495</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>418</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>557</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2775</v>
+        <v>1802</v>
       </c>
       <c r="C35" t="n">
-        <v>12.8</v>
+        <v>16.7</v>
       </c>
       <c r="D35" t="n">
-        <v>574</v>
+        <v>391</v>
       </c>
       <c r="E35" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F35" t="n">
-        <v>1855</v>
+        <v>1220</v>
       </c>
       <c r="G35" t="n">
-        <v>17</v>
+        <v>20.6</v>
       </c>
       <c r="H35" t="n">
-        <v>5347</v>
+        <v>3503</v>
       </c>
       <c r="I35" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2436</v>
+        <v>1463</v>
       </c>
       <c r="K35" t="n">
-        <v>45.4</v>
+        <v>68.3</v>
       </c>
       <c r="L35" t="n">
-        <v>21981</v>
+        <v>14566</v>
       </c>
       <c r="M35" t="n">
-        <v>13.4</v>
+        <v>16</v>
       </c>
       <c r="N35" t="n">
-        <v>1301</v>
+        <v>850</v>
       </c>
       <c r="O35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="P35" t="n">
-        <v>1300</v>
+        <v>960</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.3</v>
+        <v>19.2</v>
       </c>
       <c r="R35" t="n">
-        <v>6393</v>
+        <v>4378</v>
       </c>
       <c r="S35" t="n">
-        <v>10.9</v>
+        <v>12.2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>948</v>
+      </c>
+      <c r="U35" t="n">
+        <v>204</v>
+      </c>
+      <c r="V35" t="n">
+        <v>634</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1720</v>
+      </c>
+      <c r="X35" t="n">
+        <v>757</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>7071</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>432</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>403</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1974</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1802</v>
+        <v>2775</v>
       </c>
       <c r="C36" t="n">
-        <v>16.7</v>
+        <v>12.8</v>
       </c>
       <c r="D36" t="n">
-        <v>391</v>
+        <v>574</v>
       </c>
       <c r="E36" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F36" t="n">
-        <v>1220</v>
+        <v>1855</v>
       </c>
       <c r="G36" t="n">
-        <v>20.6</v>
+        <v>17</v>
       </c>
       <c r="H36" t="n">
-        <v>3503</v>
+        <v>5347</v>
       </c>
       <c r="I36" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="J36" t="n">
-        <v>1463</v>
+        <v>2436</v>
       </c>
       <c r="K36" t="n">
-        <v>68.3</v>
+        <v>45.4</v>
       </c>
       <c r="L36" t="n">
-        <v>14566</v>
+        <v>21981</v>
       </c>
       <c r="M36" t="n">
-        <v>16</v>
+        <v>13.4</v>
       </c>
       <c r="N36" t="n">
-        <v>850</v>
+        <v>1301</v>
       </c>
       <c r="O36" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="P36" t="n">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.2</v>
+        <v>15.3</v>
       </c>
       <c r="R36" t="n">
-        <v>4378</v>
+        <v>6393</v>
       </c>
       <c r="S36" t="n">
-        <v>12.2</v>
+        <v>10.9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>973</v>
+      </c>
+      <c r="U36" t="n">
+        <v>183</v>
+      </c>
+      <c r="V36" t="n">
+        <v>635</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1844</v>
+      </c>
+      <c r="X36" t="n">
+        <v>973</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>7415</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>451</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2632,6 +3622,33 @@
         <v>8678.1</v>
       </c>
       <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>1156.99</v>
+      </c>
+      <c r="U37" t="n">
+        <v>212.09</v>
+      </c>
+      <c r="V37" t="n">
+        <v>666.29</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2058.32</v>
+      </c>
+      <c r="X37" t="n">
+        <v>886.04</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8326.200000000001</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>518.5999999999999</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>542.77</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>2285.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/人民生活/城镇居民人均支出情况.xlsx
+++ b/data_quarter/zb/人民生活/城镇居民人均支出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,51 +524,6 @@
           <t>城镇居民人均食品烟酒支出_累计增长</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均交通通信支出</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均其他用品及服务支出</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均医疗保健支出</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均居住支出</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均教育文化娱乐支出</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均消费支出</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均生活用品及服务支出</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均衣着支出</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均食品烟酒支出</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -612,173 +567,92 @@
         <v>1561.4</v>
       </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>558.6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>119.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1008</v>
-      </c>
-      <c r="X2" t="n">
-        <v>428.7</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4725.2</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>270</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>516.4</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1561.4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1093.8</v>
+        <v>1671.4</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>246.6</v>
+        <v>370.8</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>547</v>
+        <v>844.8</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2014.1</v>
+        <v>3093.9</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>824.2</v>
+        <v>1438.4</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>8856.57</v>
+        <v>13488.36</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>542.3</v>
+        <v>839.9</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>836.7</v>
+        <v>1126.4</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>2751.8</v>
+        <v>4102.8</v>
       </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>535.1999999999999</v>
-      </c>
-      <c r="U3" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>284.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1006.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>395.5000000000001</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4131.37</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>272.3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>320.3000000000001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1190.4</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1671.4</v>
+        <v>1093.8</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>370.8</v>
+        <v>246.6</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>844.8</v>
+        <v>547</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>3093.9</v>
+        <v>2014.1</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1438.4</v>
+        <v>824.2</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>13488.36</v>
+        <v>8856.57</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>839.9</v>
+        <v>542.3</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>1126.4</v>
+        <v>836.7</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>4102.8</v>
+        <v>2751.8</v>
       </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>577.6000000000001</v>
-      </c>
-      <c r="U4" t="n">
-        <v>124.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>297.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1079.8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>614.2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4631.790000000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>297.6</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>289.7</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1351</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -822,33 +696,6 @@
         <v>5570.73</v>
       </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>646.4400000000001</v>
-      </c>
-      <c r="U5" t="n">
-        <v>119.59</v>
-      </c>
-      <c r="V5" t="n">
-        <v>291.3199999999999</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1207.47</v>
-      </c>
-      <c r="X5" t="n">
-        <v>549.8599999999999</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4999.18</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>289.2600000000001</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>427.26</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1467.929999999999</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -910,208 +757,127 @@
       <c r="S6" t="n">
         <v>9.9</v>
       </c>
-      <c r="T6" t="n">
-        <v>646.09</v>
-      </c>
-      <c r="U6" t="n">
-        <v>145.74</v>
-      </c>
-      <c r="V6" t="n">
-        <v>303.43</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1089.63</v>
-      </c>
-      <c r="X6" t="n">
-        <v>465.31</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>5193.15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>295.69</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>531.9299999999999</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1715.33</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1267.12</v>
+        <v>1903.83</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8</v>
+        <v>13.9</v>
       </c>
       <c r="D7" t="n">
-        <v>275.62</v>
+        <v>401.91</v>
       </c>
       <c r="E7" t="n">
-        <v>11.8</v>
+        <v>8.4</v>
       </c>
       <c r="F7" t="n">
-        <v>617.16</v>
+        <v>964.17</v>
       </c>
       <c r="G7" t="n">
-        <v>12.8</v>
+        <v>14.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2145.6</v>
+        <v>3278.44</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>869.05</v>
+        <v>1525.57</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="L7" t="n">
-        <v>9670.549999999999</v>
+        <v>14607.33</v>
       </c>
       <c r="M7" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>589.5599999999999</v>
+        <v>905.39</v>
       </c>
       <c r="O7" t="n">
-        <v>8.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="P7" t="n">
-        <v>878.15</v>
+        <v>1184.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="R7" t="n">
-        <v>3028.3</v>
+        <v>4443.87</v>
       </c>
       <c r="S7" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="T7" t="n">
-        <v>621.0299999999999</v>
-      </c>
-      <c r="U7" t="n">
-        <v>129.88</v>
-      </c>
-      <c r="V7" t="n">
-        <v>313.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1055.97</v>
-      </c>
-      <c r="X7" t="n">
-        <v>403.74</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>4477.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>293.8699999999999</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>346.22</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1312.97</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1903.83</v>
+        <v>1267.12</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9</v>
+        <v>15.8</v>
       </c>
       <c r="D8" t="n">
-        <v>401.91</v>
+        <v>275.62</v>
       </c>
       <c r="E8" t="n">
-        <v>8.4</v>
+        <v>11.8</v>
       </c>
       <c r="F8" t="n">
-        <v>964.17</v>
+        <v>617.16</v>
       </c>
       <c r="G8" t="n">
-        <v>14.1</v>
+        <v>12.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3278.44</v>
+        <v>2145.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1525.57</v>
+        <v>869.05</v>
       </c>
       <c r="K8" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
-        <v>14607.33</v>
+        <v>9670.549999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="N8" t="n">
-        <v>905.39</v>
+        <v>589.5599999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>1184.15</v>
+        <v>878.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>4443.87</v>
+        <v>3028.3</v>
       </c>
       <c r="S8" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="T8" t="n">
-        <v>636.71</v>
-      </c>
-      <c r="U8" t="n">
-        <v>126.29</v>
-      </c>
-      <c r="V8" t="n">
-        <v>347.01</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1132.84</v>
-      </c>
-      <c r="X8" t="n">
-        <v>656.52</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4936.780000000001</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>315.83</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>306.0000000000001</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1415.57</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1174,33 +940,6 @@
       <c r="S9" t="n">
         <v>7.7</v>
       </c>
-      <c r="T9" t="n">
-        <v>733.4400000000001</v>
-      </c>
-      <c r="U9" t="n">
-        <v>131.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>341.4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1211.12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>616.7300000000002</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5360.750000000002</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>327.8200000000001</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>443.0599999999999</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1556.14</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1262,208 +1001,127 @@
       <c r="S10" t="n">
         <v>6.5</v>
       </c>
-      <c r="T10" t="n">
-        <v>716.802222750822</v>
-      </c>
-      <c r="U10" t="n">
-        <v>153.662639698544</v>
-      </c>
-      <c r="V10" t="n">
-        <v>338.13338775132</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1158.70295050791</v>
-      </c>
-      <c r="X10" t="n">
-        <v>452.143525654966</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5533.56</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>319.294185136801</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>568.097192883916</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1826.72185551498</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1399.57</v>
+        <v>2115.02645924153</v>
       </c>
       <c r="C11" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="D11" t="n">
-        <v>294.47</v>
+        <v>435.51264315043</v>
       </c>
       <c r="E11" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="F11" t="n">
-        <v>697.53</v>
+        <v>1061.35848427404</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>10.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2272.99</v>
+        <v>3444.27568337294</v>
       </c>
       <c r="I11" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>951.22</v>
+        <v>1668.04990021673</v>
       </c>
       <c r="K11" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>10401.01</v>
+        <v>15635.7636311552</v>
       </c>
       <c r="M11" t="n">
+        <v>5.41871921182266</v>
+      </c>
+      <c r="N11" t="n">
+        <v>955.427316455785</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1237.37482273358</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4718.73832171015</v>
+      </c>
+      <c r="S11" t="n">
         <v>6.2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>633.03</v>
-      </c>
-      <c r="O11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>924.35</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3227.84</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>682.7677772491779</v>
-      </c>
-      <c r="U11" t="n">
-        <v>140.807360301456</v>
-      </c>
-      <c r="V11" t="n">
-        <v>359.39661224868</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1114.28704949209</v>
-      </c>
-      <c r="X11" t="n">
-        <v>499.076474345034</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>4867.45</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>313.735814863199</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>356.252807116084</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1401.11814448502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2115.02645924153</v>
+        <v>1399.57</v>
       </c>
       <c r="C12" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="D12" t="n">
-        <v>435.51264315043</v>
+        <v>294.47</v>
       </c>
       <c r="E12" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1061.35848427404</v>
+        <v>697.53</v>
       </c>
       <c r="G12" t="n">
-        <v>10.1</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>3444.27568337294</v>
+        <v>2272.99</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1668.04990021673</v>
+        <v>951.22</v>
       </c>
       <c r="K12" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="L12" t="n">
-        <v>15635.7636311552</v>
+        <v>10401.01</v>
       </c>
       <c r="M12" t="n">
-        <v>5.41871921182266</v>
+        <v>6.2</v>
       </c>
       <c r="N12" t="n">
-        <v>955.427316455785</v>
+        <v>633.03</v>
       </c>
       <c r="O12" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1237.37482273358</v>
+        <v>924.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="R12" t="n">
-        <v>4718.73832171015</v>
+        <v>3227.84</v>
       </c>
       <c r="S12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>715.4564592415302</v>
-      </c>
-      <c r="U12" t="n">
-        <v>141.04264315043</v>
-      </c>
-      <c r="V12" t="n">
-        <v>363.82848427404</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1171.28568337294</v>
-      </c>
-      <c r="X12" t="n">
-        <v>716.82990021673</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>5234.753631155199</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>322.397316455785</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>313.02482273358</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1490.89832171015</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -1526,33 +1184,6 @@
       <c r="S13" t="n">
         <v>6</v>
       </c>
-      <c r="T13" t="n">
-        <v>780.3489802634899</v>
-      </c>
-      <c r="U13" t="n">
-        <v>142.009533641213</v>
-      </c>
-      <c r="V13" t="n">
-        <v>382.01105858298</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1281.70201468503</v>
-      </c>
-      <c r="X13" t="n">
-        <v>714.7859029376498</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5756.5993017368</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>351.054498221055</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>463.7506316237</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1640.93668178172</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1614,208 +1245,127 @@
       <c r="S14" t="n">
         <v>7.5</v>
       </c>
-      <c r="T14" t="n">
-        <v>759.56330923885</v>
-      </c>
-      <c r="U14" t="n">
-        <v>157.769357288681</v>
-      </c>
-      <c r="V14" t="n">
-        <v>372.798561315858</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1232.00325967248</v>
-      </c>
-      <c r="X14" t="n">
-        <v>561.761392242377</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5969.9685466979</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>347.421062937235</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>575.090007838043</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1963.56159616438</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1491.5054179143</v>
+        <v>2276.720121</v>
       </c>
       <c r="C15" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="D15" t="n">
-        <v>301.270741781</v>
+        <v>437.9534034</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
-        <v>792.1160019485</v>
+        <v>1189.129964</v>
       </c>
       <c r="G15" t="n">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>2436.6670869304</v>
+        <v>3688.662443</v>
       </c>
       <c r="I15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1077.6597670343</v>
+        <v>1878.606812</v>
       </c>
       <c r="K15" t="n">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
       <c r="L15" t="n">
-        <v>11185</v>
+        <v>16796.59809</v>
       </c>
       <c r="M15" t="n">
-        <v>5.3</v>
+        <v>5.294117647</v>
       </c>
       <c r="N15" t="n">
-        <v>680.2384533334</v>
+        <v>1033.464022</v>
       </c>
       <c r="O15" t="n">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>938.0891449632001</v>
+        <v>1258.763727</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>3467.4091374347</v>
+        <v>5033.297601</v>
       </c>
       <c r="S15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>731.9421086754501</v>
-      </c>
-      <c r="U15" t="n">
-        <v>143.501384492319</v>
-      </c>
-      <c r="V15" t="n">
-        <v>419.3174406326419</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1204.66382725792</v>
-      </c>
-      <c r="X15" t="n">
-        <v>515.8983747919231</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>5215.0314533021</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>332.817390396165</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>362.9991371251571</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1503.84754127032</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2276.720121</v>
+        <v>1491.5054179143</v>
       </c>
       <c r="C16" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="D16" t="n">
-        <v>437.9534034</v>
+        <v>301.270741781</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1189.129964</v>
+        <v>792.1160019485</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3688.662443</v>
+        <v>2436.6670869304</v>
       </c>
       <c r="I16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1878.606812</v>
+        <v>1077.6597670343</v>
       </c>
       <c r="K16" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="L16" t="n">
-        <v>16796.59809</v>
+        <v>11185</v>
       </c>
       <c r="M16" t="n">
-        <v>5.294117647</v>
+        <v>5.3</v>
       </c>
       <c r="N16" t="n">
-        <v>1033.464022</v>
+        <v>680.2384533334</v>
       </c>
       <c r="O16" t="n">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1258.763727</v>
+        <v>938.0891449632001</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>5033.297601</v>
+        <v>3467.4091374347</v>
       </c>
       <c r="S16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>785.2147030856997</v>
-      </c>
-      <c r="U16" t="n">
-        <v>136.682661619</v>
-      </c>
-      <c r="V16" t="n">
-        <v>397.0139620515</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1251.9953560696</v>
-      </c>
-      <c r="X16" t="n">
-        <v>800.9470449656999</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5611.59809</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>353.2255686666001</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>320.6745820368</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1565.8884635653</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="17">
@@ -1878,33 +1428,6 @@
       <c r="S17" t="n">
         <v>6.3</v>
       </c>
-      <c r="T17" t="n">
-        <v>897.2798790000002</v>
-      </c>
-      <c r="U17" t="n">
-        <v>157.0465966</v>
-      </c>
-      <c r="V17" t="n">
-        <v>441.870036</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1425.337557</v>
-      </c>
-      <c r="X17" t="n">
-        <v>759.393188</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>6282.40191</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>393.5359779999999</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>480.236273</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1728.702399</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1966,208 +1489,127 @@
       <c r="S18" t="n">
         <v>3.6</v>
       </c>
-      <c r="T18" t="n">
-        <v>854</v>
-      </c>
-      <c r="U18" t="n">
-        <v>176</v>
-      </c>
-      <c r="V18" t="n">
-        <v>429</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1334</v>
-      </c>
-      <c r="X18" t="n">
-        <v>632</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>6387</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>365</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>563</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2034</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1614.504908</v>
+        <v>2394.612706</v>
       </c>
       <c r="C19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>492.079306</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1323.494405</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3984.262106</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2036.8395</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17845.98354</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.527559055</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1118.258211</v>
+      </c>
+      <c r="O19" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D19" t="n">
-        <v>337.596582</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>876.145203</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2622.33167</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1182.242281</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="L19" t="n">
-        <v>11931.27866</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.123152709</v>
-      </c>
-      <c r="N19" t="n">
-        <v>728.502604</v>
-      </c>
-      <c r="O19" t="n">
-        <v>7.1</v>
-      </c>
       <c r="P19" t="n">
-        <v>947.578996</v>
+        <v>1267.735773</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="R19" t="n">
-        <v>3622.376418</v>
+        <v>5228.701532</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>760.5049079999999</v>
-      </c>
-      <c r="U19" t="n">
-        <v>161.596582</v>
-      </c>
-      <c r="V19" t="n">
-        <v>447.145203</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1288.33167</v>
-      </c>
-      <c r="X19" t="n">
-        <v>550.242281</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>5544.27866</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>363.502604</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>384.578996</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1588.376418</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2394.612706</v>
+        <v>1614.504908</v>
       </c>
       <c r="C20" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>492.079306</v>
+        <v>337.596582</v>
       </c>
       <c r="E20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1323.494405</v>
+        <v>876.145203</v>
       </c>
       <c r="G20" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3984.262106</v>
+        <v>2622.33167</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J20" t="n">
-        <v>2036.8395</v>
+        <v>1182.242281</v>
       </c>
       <c r="K20" t="n">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>17845.98354</v>
+        <v>11931.27866</v>
       </c>
       <c r="M20" t="n">
-        <v>4.527559055</v>
+        <v>5.123152709</v>
       </c>
       <c r="N20" t="n">
-        <v>1118.258211</v>
+        <v>728.502604</v>
       </c>
       <c r="O20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="P20" t="n">
-        <v>1267.735773</v>
+        <v>947.578996</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>5228.701532</v>
+        <v>3622.376418</v>
       </c>
       <c r="S20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>780.107798</v>
-      </c>
-      <c r="U20" t="n">
-        <v>154.482724</v>
-      </c>
-      <c r="V20" t="n">
-        <v>447.3492019999999</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1361.930436</v>
-      </c>
-      <c r="X20" t="n">
-        <v>854.597219</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5914.704880000001</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>389.7556070000001</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>320.1567770000001</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1606.325114</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21">
@@ -2230,33 +1672,6 @@
       <c r="S21" t="n">
         <v>3.5</v>
       </c>
-      <c r="T21" t="n">
-        <v>926.9022500000001</v>
-      </c>
-      <c r="U21" t="n">
-        <v>159.4221705</v>
-      </c>
-      <c r="V21" t="n">
-        <v>453.8728430000001</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1579.740009</v>
-      </c>
-      <c r="X21" t="n">
-        <v>809.796871</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>6598.970239999999</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>406.787724</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>490.1984199999999</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1772.249951</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2318,208 +1733,127 @@
       <c r="S22" t="n">
         <v>3.2</v>
       </c>
-      <c r="T22" t="n">
-        <v>863</v>
-      </c>
-      <c r="U22" t="n">
-        <v>186</v>
-      </c>
-      <c r="V22" t="n">
-        <v>506</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1489</v>
-      </c>
-      <c r="X22" t="n">
-        <v>605</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>6749</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>393</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>608</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2099</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1670</v>
+        <v>2522</v>
       </c>
       <c r="C23" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="D23" t="n">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="E23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1029</v>
+        <v>1527</v>
       </c>
       <c r="G23" t="n">
-        <v>17.4</v>
+        <v>15.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2911</v>
+        <v>4415</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="J23" t="n">
-        <v>1245</v>
+        <v>2110</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>12745</v>
+        <v>19014</v>
       </c>
       <c r="M23" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="N23" t="n">
-        <v>793</v>
+        <v>1193</v>
       </c>
       <c r="O23" t="n">
-        <v>8.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="P23" t="n">
-        <v>992</v>
+        <v>1298</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>3750</v>
+        <v>5428</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>807</v>
-      </c>
-      <c r="U23" t="n">
-        <v>171</v>
-      </c>
-      <c r="V23" t="n">
-        <v>523</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1422</v>
-      </c>
-      <c r="X23" t="n">
-        <v>640</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>5996</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>384</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1651</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2522</v>
+        <v>1670</v>
       </c>
       <c r="C24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>357</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1029</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2911</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1245</v>
+      </c>
+      <c r="K24" t="n">
         <v>5.3</v>
       </c>
-      <c r="D24" t="n">
-        <v>520</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1527</v>
-      </c>
-      <c r="G24" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4415</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2110</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L24" t="n">
-        <v>19014</v>
+        <v>12745</v>
       </c>
       <c r="M24" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="N24" t="n">
-        <v>1193</v>
+        <v>793</v>
       </c>
       <c r="O24" t="n">
-        <v>6.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P24" t="n">
-        <v>1298</v>
+        <v>992</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="R24" t="n">
-        <v>5428</v>
+        <v>3750</v>
       </c>
       <c r="S24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T24" t="n">
-        <v>852</v>
-      </c>
-      <c r="U24" t="n">
-        <v>163</v>
-      </c>
-      <c r="V24" t="n">
-        <v>498</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1504</v>
-      </c>
-      <c r="X24" t="n">
-        <v>865</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>6269</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>306</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1678</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25">
@@ -2582,33 +1916,6 @@
       <c r="S25" t="n">
         <v>3.4</v>
       </c>
-      <c r="T25" t="n">
-        <v>951</v>
-      </c>
-      <c r="U25" t="n">
-        <v>167</v>
-      </c>
-      <c r="V25" t="n">
-        <v>519</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1840</v>
-      </c>
-      <c r="X25" t="n">
-        <v>864</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>7098</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>436</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>510</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1811</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2670,208 +1977,127 @@
       <c r="S26" t="n">
         <v>1.7</v>
       </c>
-      <c r="T26" t="n">
-        <v>924.687253282</v>
-      </c>
-      <c r="U26" t="n">
-        <v>199.9193095722</v>
-      </c>
-      <c r="V26" t="n">
-        <v>555.1387758793001</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1629.4202816521</v>
-      </c>
-      <c r="X26" t="n">
-        <v>706.1898045242</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>7160.4522463822</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>407.6535152205</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>602.5228336828</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>2134.9204725693</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1775.690854075</v>
+        <v>2675.0218944171</v>
       </c>
       <c r="C27" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>392.9397335144</v>
+        <v>575.551020248</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="F27" t="n">
-        <v>1121.8444762931</v>
+        <v>1683.5959486813</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>10.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3230.920589013</v>
+        <v>4889.1437509117</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1371.1790596488</v>
+        <v>2369.2689435881</v>
       </c>
       <c r="K27" t="n">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="L27" t="n">
-        <v>13565.2730114514</v>
+        <v>20379.2294427049</v>
       </c>
       <c r="M27" t="n">
-        <v>4.1095890411</v>
+        <v>4.6875</v>
       </c>
       <c r="N27" t="n">
-        <v>821.1105404156</v>
+        <v>1224.997254375</v>
       </c>
       <c r="O27" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P27" t="n">
-        <v>1000.01333444</v>
+        <v>1321.5923774222</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>3851.5744240515</v>
+        <v>5640.0582530616</v>
       </c>
       <c r="S27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T27" t="n">
-        <v>851.003600793</v>
-      </c>
-      <c r="U27" t="n">
-        <v>193.0204239422</v>
-      </c>
-      <c r="V27" t="n">
-        <v>566.7057004137998</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1601.5003073609</v>
-      </c>
-      <c r="X27" t="n">
-        <v>664.9892551245999</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>6404.820765069199</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>413.4570251951</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>397.4905007572</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1716.6539514822</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2675.0218944171</v>
+        <v>1775.690854075</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D28" t="n">
-        <v>575.551020248</v>
+        <v>392.9397335144</v>
       </c>
       <c r="E28" t="n">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>1683.5959486813</v>
+        <v>1121.8444762931</v>
       </c>
       <c r="G28" t="n">
+        <v>9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3230.920589013</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1371.1790596488</v>
+      </c>
+      <c r="K28" t="n">
         <v>10.2</v>
       </c>
-      <c r="H28" t="n">
-        <v>4889.1437509117</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2369.2689435881</v>
-      </c>
-      <c r="K28" t="n">
-        <v>12.3</v>
-      </c>
       <c r="L28" t="n">
-        <v>20379.2294427049</v>
+        <v>13565.2730114514</v>
       </c>
       <c r="M28" t="n">
-        <v>4.6875</v>
+        <v>4.1095890411</v>
       </c>
       <c r="N28" t="n">
-        <v>1224.997254375</v>
+        <v>821.1105404156</v>
       </c>
       <c r="O28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1000.01333444</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3851.5744240515</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.7</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1321.5923774222</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5640.0582530616</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T28" t="n">
-        <v>899.3310403421001</v>
-      </c>
-      <c r="U28" t="n">
-        <v>182.6112867336</v>
-      </c>
-      <c r="V28" t="n">
-        <v>561.7514723882</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1658.2231618987</v>
-      </c>
-      <c r="X28" t="n">
-        <v>998.0898839392999</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>6813.956431253499</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>403.8867139594</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>321.5790429821999</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1788.4838290101</v>
       </c>
     </row>
     <row r="29">
@@ -2934,33 +2160,6 @@
       <c r="S29" t="n">
         <v>6.8</v>
       </c>
-      <c r="T29" t="n">
-        <v>995.9781055828998</v>
-      </c>
-      <c r="U29" t="n">
-        <v>171.448979752</v>
-      </c>
-      <c r="V29" t="n">
-        <v>599.4040513187001</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1890.8562490883</v>
-      </c>
-      <c r="X29" t="n">
-        <v>958.7310564119002</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>7683.770557295102</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>464.002745625</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>510.4076225778001</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>2092.9417469384</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3022,208 +2221,127 @@
       <c r="S30" t="n">
         <v>-1.1</v>
       </c>
-      <c r="T30" t="n">
-        <v>746</v>
-      </c>
-      <c r="U30" t="n">
-        <v>151</v>
-      </c>
-      <c r="V30" t="n">
-        <v>494</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1667</v>
-      </c>
-      <c r="X30" t="n">
-        <v>471</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>6478</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>357</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>481</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>2111</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1544</v>
+        <v>2460</v>
       </c>
       <c r="C31" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="D31" t="n">
-        <v>294</v>
+        <v>456</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.3</v>
+        <v>-20.8</v>
       </c>
       <c r="F31" t="n">
-        <v>1012</v>
+        <v>1585</v>
       </c>
       <c r="G31" t="n">
-        <v>-9.800000000000001</v>
+        <v>-5.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3303</v>
+        <v>5012</v>
       </c>
       <c r="I31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1675</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>19247</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1166</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1128</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5764</v>
+      </c>
+      <c r="S31" t="n">
         <v>2.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>869</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-36.6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12485</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-11.2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>755</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-8</v>
-      </c>
-      <c r="P31" t="n">
-        <v>805</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-19.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3903</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>798</v>
-      </c>
-      <c r="U31" t="n">
-        <v>143</v>
-      </c>
-      <c r="V31" t="n">
-        <v>518</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1636</v>
-      </c>
-      <c r="X31" t="n">
-        <v>398</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>6007</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>398</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>324</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1792</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2460</v>
+        <v>1544</v>
       </c>
       <c r="C32" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D32" t="n">
+        <v>294</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1012</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3303</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>869</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12485</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>755</v>
+      </c>
+      <c r="O32" t="n">
         <v>-8</v>
       </c>
-      <c r="D32" t="n">
-        <v>456</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-20.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1585</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5012</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1675</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-29.3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>19247</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-8.4</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1166</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-4.8</v>
-      </c>
       <c r="P32" t="n">
-        <v>1128</v>
+        <v>805</v>
       </c>
       <c r="Q32" t="n">
-        <v>-14.6</v>
+        <v>-19.5</v>
       </c>
       <c r="R32" t="n">
-        <v>5764</v>
+        <v>3903</v>
       </c>
       <c r="S32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>916</v>
-      </c>
-      <c r="U32" t="n">
-        <v>162</v>
-      </c>
-      <c r="V32" t="n">
-        <v>573</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1709</v>
-      </c>
-      <c r="X32" t="n">
-        <v>806</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>6762</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>411</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>323</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1861</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33">
@@ -3286,33 +2404,6 @@
       <c r="S33" t="n">
         <v>1.9</v>
       </c>
-      <c r="T33" t="n">
-        <v>1014</v>
-      </c>
-      <c r="U33" t="n">
-        <v>190</v>
-      </c>
-      <c r="V33" t="n">
-        <v>587</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1946</v>
-      </c>
-      <c r="X33" t="n">
-        <v>917</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>7760</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>474</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>517</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>2117</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3374,208 +2465,127 @@
       <c r="S34" t="n">
         <v>13.9</v>
       </c>
-      <c r="T34" t="n">
-        <v>854</v>
-      </c>
-      <c r="U34" t="n">
-        <v>187</v>
-      </c>
-      <c r="V34" t="n">
-        <v>586</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1783</v>
-      </c>
-      <c r="X34" t="n">
-        <v>706</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>7495</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>418</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>557</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>2404</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1802</v>
+        <v>2775</v>
       </c>
       <c r="C35" t="n">
-        <v>16.7</v>
+        <v>12.8</v>
       </c>
       <c r="D35" t="n">
-        <v>391</v>
+        <v>574</v>
       </c>
       <c r="E35" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F35" t="n">
-        <v>1220</v>
+        <v>1855</v>
       </c>
       <c r="G35" t="n">
-        <v>20.6</v>
+        <v>17</v>
       </c>
       <c r="H35" t="n">
-        <v>3503</v>
+        <v>5347</v>
       </c>
       <c r="I35" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="J35" t="n">
-        <v>1463</v>
+        <v>2436</v>
       </c>
       <c r="K35" t="n">
-        <v>68.3</v>
+        <v>45.4</v>
       </c>
       <c r="L35" t="n">
-        <v>14566</v>
+        <v>21981</v>
       </c>
       <c r="M35" t="n">
-        <v>16</v>
+        <v>13.4</v>
       </c>
       <c r="N35" t="n">
-        <v>850</v>
+        <v>1301</v>
       </c>
       <c r="O35" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="P35" t="n">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.2</v>
+        <v>15.3</v>
       </c>
       <c r="R35" t="n">
-        <v>4378</v>
+        <v>6393</v>
       </c>
       <c r="S35" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>948</v>
-      </c>
-      <c r="U35" t="n">
-        <v>204</v>
-      </c>
-      <c r="V35" t="n">
-        <v>634</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1720</v>
-      </c>
-      <c r="X35" t="n">
-        <v>757</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>7071</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>432</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>403</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1974</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2775</v>
+        <v>1802</v>
       </c>
       <c r="C36" t="n">
-        <v>12.8</v>
+        <v>16.7</v>
       </c>
       <c r="D36" t="n">
-        <v>574</v>
+        <v>391</v>
       </c>
       <c r="E36" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F36" t="n">
-        <v>1855</v>
+        <v>1220</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>20.6</v>
       </c>
       <c r="H36" t="n">
-        <v>5347</v>
+        <v>3503</v>
       </c>
       <c r="I36" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="J36" t="n">
-        <v>2436</v>
+        <v>1463</v>
       </c>
       <c r="K36" t="n">
-        <v>45.4</v>
+        <v>68.3</v>
       </c>
       <c r="L36" t="n">
-        <v>21981</v>
+        <v>14566</v>
       </c>
       <c r="M36" t="n">
-        <v>13.4</v>
+        <v>16</v>
       </c>
       <c r="N36" t="n">
-        <v>1301</v>
+        <v>850</v>
       </c>
       <c r="O36" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="P36" t="n">
-        <v>1300</v>
+        <v>960</v>
       </c>
       <c r="Q36" t="n">
-        <v>15.3</v>
+        <v>19.2</v>
       </c>
       <c r="R36" t="n">
-        <v>6393</v>
+        <v>4378</v>
       </c>
       <c r="S36" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="T36" t="n">
-        <v>973</v>
-      </c>
-      <c r="U36" t="n">
-        <v>183</v>
-      </c>
-      <c r="V36" t="n">
-        <v>635</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1844</v>
-      </c>
-      <c r="X36" t="n">
-        <v>973</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>7415</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>451</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>2015</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="37">
@@ -3587,23 +2597,33 @@
       <c r="B37" t="n">
         <v>3931.99</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>13.1735759313</v>
+      </c>
       <c r="D37" t="n">
         <v>786.09</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>21.6506482785</v>
+      </c>
       <c r="F37" t="n">
         <v>2521.29</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>16.0711337554</v>
+      </c>
       <c r="H37" t="n">
         <v>7405.32</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>6.4336723385</v>
+      </c>
       <c r="J37" t="n">
         <v>3322.04</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>28.1781137411</v>
+      </c>
       <c r="L37" t="n">
         <v>30307.2</v>
       </c>
@@ -3613,41 +2633,20 @@
       <c r="N37" t="n">
         <v>1819.6</v>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>10.9509120995</v>
+      </c>
       <c r="P37" t="n">
         <v>1842.77</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>12.0335656948</v>
+      </c>
       <c r="R37" t="n">
         <v>8678.1</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>1156.99</v>
-      </c>
-      <c r="U37" t="n">
-        <v>212.09</v>
-      </c>
-      <c r="V37" t="n">
-        <v>666.29</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2058.32</v>
-      </c>
-      <c r="X37" t="n">
-        <v>886.04</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>8326.200000000001</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>518.5999999999999</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>542.77</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>2285.1</v>
+      <c r="S37" t="n">
+        <v>10.1211615125</v>
       </c>
     </row>
   </sheetData>
